--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.7304217136297</v>
+        <v>71.329076</v>
       </c>
       <c r="H2">
-        <v>51.7304217136297</v>
+        <v>213.987228</v>
       </c>
       <c r="I2">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="J2">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07514179775227</v>
+        <v>1.482117666666667</v>
       </c>
       <c r="N2">
-        <v>1.07514179775227</v>
+        <v>4.446353</v>
       </c>
       <c r="O2">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="P2">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="Q2">
-        <v>55.6175385996749</v>
+        <v>105.7180836866093</v>
       </c>
       <c r="R2">
-        <v>55.6175385996749</v>
+        <v>951.4627531794841</v>
       </c>
       <c r="S2">
-        <v>0.02990857443583255</v>
+        <v>0.04636499905115028</v>
       </c>
       <c r="T2">
-        <v>0.02990857443583255</v>
+        <v>0.04636499905115028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.7304217136297</v>
+        <v>71.329076</v>
       </c>
       <c r="H3">
-        <v>51.7304217136297</v>
+        <v>213.987228</v>
       </c>
       <c r="I3">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="J3">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.3497057757717</v>
+        <v>2.365790333333333</v>
       </c>
       <c r="N3">
-        <v>2.3497057757717</v>
+        <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883227</v>
       </c>
       <c r="P3">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883226</v>
       </c>
       <c r="Q3">
-        <v>121.5512706836215</v>
+        <v>168.7496384863987</v>
       </c>
       <c r="R3">
-        <v>121.5512706836215</v>
+        <v>1518.746746377588</v>
       </c>
       <c r="S3">
-        <v>0.06536472700056478</v>
+        <v>0.07400887866542795</v>
       </c>
       <c r="T3">
-        <v>0.06536472700056478</v>
+        <v>0.07400887866542795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.7304217136297</v>
+        <v>71.329076</v>
       </c>
       <c r="H4">
-        <v>51.7304217136297</v>
+        <v>213.987228</v>
       </c>
       <c r="I4">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="J4">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.10964258366618</v>
+        <v>6.724832333333333</v>
       </c>
       <c r="N4">
-        <v>6.10964258366618</v>
+        <v>20.174497</v>
       </c>
       <c r="O4">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="P4">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="Q4">
-        <v>316.0543873726016</v>
+        <v>479.6760765915906</v>
       </c>
       <c r="R4">
-        <v>316.0543873726016</v>
+        <v>4317.084689324316</v>
       </c>
       <c r="S4">
-        <v>0.1699596279969169</v>
+        <v>0.2103725309849295</v>
       </c>
       <c r="T4">
-        <v>0.1699596279969169</v>
+        <v>0.2103725309849295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>128.871908623701</v>
+        <v>129.5615336666667</v>
       </c>
       <c r="H5">
-        <v>128.871908623701</v>
+        <v>388.684601</v>
       </c>
       <c r="I5">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="J5">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.07514179775227</v>
+        <v>1.482117666666667</v>
       </c>
       <c r="N5">
-        <v>1.07514179775227</v>
+        <v>4.446353</v>
       </c>
       <c r="O5">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="P5">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="Q5">
-        <v>138.5555755174521</v>
+        <v>192.0254379677948</v>
       </c>
       <c r="R5">
-        <v>138.5555755174521</v>
+        <v>1728.228941710153</v>
       </c>
       <c r="S5">
-        <v>0.07450886623536336</v>
+        <v>0.08421699428043308</v>
       </c>
       <c r="T5">
-        <v>0.07450886623536336</v>
+        <v>0.08421699428043307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>128.871908623701</v>
+        <v>129.5615336666667</v>
       </c>
       <c r="H6">
-        <v>128.871908623701</v>
+        <v>388.684601</v>
       </c>
       <c r="I6">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="J6">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.3497057757717</v>
+        <v>2.365790333333333</v>
       </c>
       <c r="N6">
-        <v>2.3497057757717</v>
+        <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883227</v>
       </c>
       <c r="P6">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883226</v>
       </c>
       <c r="Q6">
-        <v>302.811068027833</v>
+        <v>306.5154239204413</v>
       </c>
       <c r="R6">
-        <v>302.811068027833</v>
+        <v>2758.638815283971</v>
       </c>
       <c r="S6">
-        <v>0.1628379751447205</v>
+        <v>0.1344291046871698</v>
       </c>
       <c r="T6">
-        <v>0.1628379751447205</v>
+        <v>0.1344291046871698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>128.871908623701</v>
+        <v>129.5615336666667</v>
       </c>
       <c r="H7">
-        <v>128.871908623701</v>
+        <v>388.684601</v>
       </c>
       <c r="I7">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="J7">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.10964258366618</v>
+        <v>6.724832333333333</v>
       </c>
       <c r="N7">
-        <v>6.10964258366618</v>
+        <v>20.174497</v>
       </c>
       <c r="O7">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="P7">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="Q7">
-        <v>787.3613007657004</v>
+        <v>871.2795907578553</v>
       </c>
       <c r="R7">
-        <v>787.3613007657004</v>
+        <v>7841.516316820697</v>
       </c>
       <c r="S7">
-        <v>0.4234069803294485</v>
+        <v>0.3821188957466072</v>
       </c>
       <c r="T7">
-        <v>0.4234069803294485</v>
+        <v>0.3821188957466072</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.435374159448</v>
+        <v>14.770314</v>
       </c>
       <c r="H8">
-        <v>14.435374159448</v>
+        <v>44.310942</v>
       </c>
       <c r="I8">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428214</v>
       </c>
       <c r="J8">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428215</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.07514179775227</v>
+        <v>1.482117666666667</v>
       </c>
       <c r="N8">
-        <v>1.07514179775227</v>
+        <v>4.446353</v>
       </c>
       <c r="O8">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="P8">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="Q8">
-        <v>15.52007412501558</v>
+        <v>21.891343321614</v>
       </c>
       <c r="R8">
-        <v>15.52007412501558</v>
+        <v>197.022089894526</v>
       </c>
       <c r="S8">
-        <v>0.008345987684905938</v>
+        <v>0.009600931807881428</v>
       </c>
       <c r="T8">
-        <v>0.008345987684905938</v>
+        <v>0.009600931807881428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.435374159448</v>
+        <v>14.770314</v>
       </c>
       <c r="H9">
-        <v>14.435374159448</v>
+        <v>44.310942</v>
       </c>
       <c r="I9">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428214</v>
       </c>
       <c r="J9">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428215</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.3497057757717</v>
+        <v>2.365790333333333</v>
       </c>
       <c r="N9">
-        <v>2.3497057757717</v>
+        <v>7.097371</v>
       </c>
       <c r="O9">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883227</v>
       </c>
       <c r="P9">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883226</v>
       </c>
       <c r="Q9">
-        <v>33.91888203788051</v>
+        <v>34.943466081498</v>
       </c>
       <c r="R9">
-        <v>33.91888203788051</v>
+        <v>314.491194733482</v>
       </c>
       <c r="S9">
-        <v>0.01824002704456438</v>
+        <v>0.01532522833572486</v>
       </c>
       <c r="T9">
-        <v>0.01824002704456438</v>
+        <v>0.01532522833572486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.435374159448</v>
+        <v>14.770314</v>
       </c>
       <c r="H10">
-        <v>14.435374159448</v>
+        <v>44.310942</v>
       </c>
       <c r="I10">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428214</v>
       </c>
       <c r="J10">
-        <v>0.07401324885715325</v>
+        <v>0.06848859658428215</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.10964258366618</v>
+        <v>6.724832333333333</v>
       </c>
       <c r="N10">
-        <v>6.10964258366618</v>
+        <v>20.174497</v>
       </c>
       <c r="O10">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="P10">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="Q10">
-        <v>88.1949766757179</v>
+        <v>99.32788516068599</v>
       </c>
       <c r="R10">
-        <v>88.1949766757179</v>
+        <v>893.950966446174</v>
       </c>
       <c r="S10">
-        <v>0.04742723412768294</v>
+        <v>0.04356243644067585</v>
       </c>
       <c r="T10">
-        <v>0.04742723412768294</v>
+        <v>0.04356243644067587</v>
       </c>
     </row>
   </sheetData>
